--- a/source_analyses/nl/2012/6_residences/6_residences_source_analysis.xlsx
+++ b/source_analyses/nl/2012/6_residences/6_residences_source_analysis.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="lighting" sheetId="1" r:id="rId1"/>
+    <sheet name="Application split" sheetId="2" r:id="rId1"/>
+    <sheet name="Lighting" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>from:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Rapportage marktverwachting lampenverkoop in Nederland</t>
   </si>
@@ -36,56 +34,120 @@
     <t>Lamps in use</t>
   </si>
   <si>
-    <t xml:space="preserve">  CFL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Fluorescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Other*</t>
-  </si>
-  <si>
     <t>* met name gloeilampen en halogeen lampen</t>
   </si>
   <si>
-    <t>Average # lamps per HH in NL</t>
-  </si>
-  <si>
-    <t>ETM categories</t>
-  </si>
-  <si>
-    <t>incandescent lamps</t>
-  </si>
-  <si>
     <t>LED lamps</t>
   </si>
   <si>
-    <t>low energy light bulbs</t>
-  </si>
-  <si>
-    <t># lamps per HH in NL</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>rounded share</t>
-  </si>
-  <si>
     <t>We assumed that the share of useful demand is equal to the share of lamps.</t>
+  </si>
+  <si>
+    <t>http://www.odyssee-mure.eu/publications/efficiency-by-sector/household/</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>toe</t>
+  </si>
+  <si>
+    <t>Applicances</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Cooling (AC)</t>
+  </si>
+  <si>
+    <t>Water heating</t>
+  </si>
+  <si>
+    <t>Space heating</t>
+  </si>
+  <si>
+    <t>End-use (PJ)</t>
+  </si>
+  <si>
+    <t>End-use (GJ/dwelling)</t>
+  </si>
+  <si>
+    <t>End-use (toe/dwelling)</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t># dwellings</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Application split</t>
+  </si>
+  <si>
+    <t>Not used for NL 2012 dataset yet</t>
+  </si>
+  <si>
+    <t>Enerdata_2014_Energy efficiency trends for households in the EU (http://refman.et-model.com/publications/1868)</t>
+  </si>
+  <si>
+    <t>Other*</t>
+  </si>
+  <si>
+    <t>CFL</t>
+  </si>
+  <si>
+    <t>Fluorescent</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Average number of lamps per HH in NL in 2011</t>
+  </si>
+  <si>
+    <t>Number of lamps per HH in NL</t>
+  </si>
+  <si>
+    <t>Lighting technologies in ETM</t>
+  </si>
+  <si>
+    <t>Incandescent lamps</t>
+  </si>
+  <si>
+    <t>Low energy light bulbs</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1879</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +179,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,64 +218,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,165 +639,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="20">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7386743</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30">
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" ref="D10:D15" si="0">C10*$C$17</f>
+        <v>33.494400000000006</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E15" si="1">D10*$C$7/1000000</f>
+        <v>247.41452473920006</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>10.467000000000001</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>77.31703898100001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0934000000000004</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>15.463407796200004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0934000000000004</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>15.463407796200004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3736000000000015</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>61.853631184800015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>41.868000000000002</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="45">
+      <c r="B6" s="18"/>
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30">
+      <c r="B15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16">
+        <f>C11</f>
+        <v>29</v>
+      </c>
+      <c r="D16" s="24">
+        <f>C16/C19</f>
+        <v>0.64444444444444449</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C8+C9</f>
+        <v>14</v>
+      </c>
+      <c r="D17" s="24">
+        <f>C17/C19</f>
+        <v>0.31111111111111112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="16">
+        <f>C10</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="24">
+        <f>C18/C19</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="18">
+        <f>SUM(C16:C18)</f>
+        <v>45</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="C3" t="s">
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="16" thickBot="1">
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <f>C14</f>
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <f>C19/C22</f>
-        <v>0.64444444444444449</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.64449999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <f>C11+C12</f>
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <f>C20/C22</f>
-        <v>0.31111111111111112</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.31109999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="16" thickBot="1">
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <f>C13</f>
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <f>C21/C22</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4.4400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <f>SUM(C19:C21)</f>
-        <v>45</v>
+    <row r="25" spans="2:4">
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
